--- a/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C7DCB4-1F08-4FF2-9BA1-5E55EE8EDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC5E139-5CB4-4CB7-9050-2C54AFCABD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37D2C6D1-AD8B-4888-B2DF-06D870D899A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{691883A6-0C92-4EA7-AD4E-38BA57ADA647}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,25 +104,28 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>40,1%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -131,28 +134,28 @@
     <t>21,82%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -161,10 +164,10 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>5,35%</t>
@@ -173,16 +176,16 @@
     <t>4,24%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,59%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,70 +197,70 @@
     <t>53,78%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
   </si>
   <si>
     <t>33,57%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,66%</t>
   </si>
   <si>
     <t>14,2%</t>
@@ -266,7 +269,7 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>12,88%</t>
@@ -275,25 +278,25 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -305,88 +308,91 @@
     <t>50,76%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
   </si>
   <si>
     <t>47,39%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -395,115 +401,115 @@
     <t>1,34%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>43,83%</t>
   </si>
   <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FEAA2-0375-476A-9FA9-56C3130D0E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBBE37C-4064-4473-818A-A013BC1831DA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1126,16 +1132,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>160</v>
@@ -1144,13 +1150,13 @@
         <v>116940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>405</v>
@@ -1159,13 +1165,13 @@
         <v>235072</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>565</v>
@@ -1174,19 +1180,19 @@
         <v>352012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>42</v>
@@ -1195,13 +1201,13 @@
         <v>30289</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -1210,13 +1216,13 @@
         <v>44306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -1225,13 +1231,13 @@
         <v>74595</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,13 +1252,13 @@
         <v>535911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1414</v>
@@ -1261,13 +1267,13 @@
         <v>828554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2098</v>
@@ -1276,18 +1282,18 @@
         <v>1364464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1299,13 +1305,13 @@
         <v>1159243</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>1185</v>
@@ -1314,13 +1320,13 @@
         <v>1090502</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2111</v>
@@ -1329,13 +1335,13 @@
         <v>2249746</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,13 +1356,13 @@
         <v>723700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1223</v>
@@ -1365,13 +1371,13 @@
         <v>845221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
@@ -1380,19 +1386,19 @@
         <v>1568921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>267</v>
@@ -1401,13 +1407,13 @@
         <v>232960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
@@ -1416,13 +1422,13 @@
         <v>285868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
@@ -1431,19 +1437,19 @@
         <v>518828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -1452,13 +1458,13 @@
         <v>39610</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1467,13 +1473,13 @@
         <v>24608</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -1482,13 +1488,13 @@
         <v>64219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,13 +1509,13 @@
         <v>2155513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2916</v>
@@ -1518,13 +1524,13 @@
         <v>2246200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4902</v>
@@ -1533,18 +1539,18 @@
         <v>4401713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,13 +1562,13 @@
         <v>340304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>441</v>
@@ -1571,13 +1577,13 @@
         <v>338265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -1586,13 +1592,13 @@
         <v>678570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,13 +1613,13 @@
         <v>263338</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>437</v>
@@ -1622,13 +1628,13 @@
         <v>290616</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>727</v>
@@ -1637,19 +1643,19 @@
         <v>553955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>64</v>
@@ -1658,13 +1664,13 @@
         <v>58251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -1673,13 +1679,13 @@
         <v>69271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -1688,19 +1694,19 @@
         <v>127522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -1709,13 +1715,13 @@
         <v>8557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -1724,13 +1730,13 @@
         <v>15575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1739,13 +1745,13 @@
         <v>24131</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,13 +1766,13 @@
         <v>670450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1003</v>
@@ -1775,13 +1781,13 @@
         <v>713727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1682</v>
@@ -1790,13 +1796,13 @@
         <v>1384178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1819,13 @@
         <v>1687339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>2002</v>
@@ -1828,13 +1834,13 @@
         <v>1660589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>3469</v>
@@ -1843,13 +1849,13 @@
         <v>3347928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1870,13 @@
         <v>1187928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2213</v>
@@ -1879,13 +1885,13 @@
         <v>1453192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>3516</v>
@@ -1894,19 +1900,19 @@
         <v>2641120</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>491</v>
@@ -1915,13 +1921,13 @@
         <v>408151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>978</v>
@@ -1930,13 +1936,13 @@
         <v>590211</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1469</v>
@@ -1945,19 +1951,19 @@
         <v>998362</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>88</v>
@@ -1966,13 +1972,13 @@
         <v>78456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>140</v>
@@ -1981,13 +1987,13 @@
         <v>84489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>228</v>
@@ -1996,13 +2002,13 @@
         <v>162945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2023,13 @@
         <v>3361874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5333</v>
@@ -2032,13 +2038,13 @@
         <v>3788481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8682</v>
@@ -2047,18 +2053,18 @@
         <v>7150355</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC5E139-5CB4-4CB7-9050-2C54AFCABD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF540B87-5DF3-4B52-9C37-2AB4A14F48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{691883A6-0C92-4EA7-AD4E-38BA57ADA647}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD2CC378-CAB8-4BB5-BDF5-7EA4FC913184}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBBE37C-4064-4473-818A-A013BC1831DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E625BB6-153E-4F59-A473-EEC7BA63043A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF540B87-5DF3-4B52-9C37-2AB4A14F48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{081B15BE-0A49-4B5E-8202-4E11398E548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD2CC378-CAB8-4BB5-BDF5-7EA4FC913184}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77BE3155-E216-4C4B-80F7-E68046FC8625}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,442 +74,436 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>28,46%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>37,37%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,87%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E625BB6-153E-4F59-A473-EEC7BA63043A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167C835-2312-4EE8-8675-A2424A3B56CD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1132,16 +1126,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>160</v>
@@ -1150,13 +1144,13 @@
         <v>116940</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>405</v>
@@ -1165,13 +1159,13 @@
         <v>235072</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>565</v>
@@ -1180,19 +1174,19 @@
         <v>352012</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>42</v>
@@ -1201,13 +1195,13 @@
         <v>30289</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -1216,13 +1210,13 @@
         <v>44306</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -1231,13 +1225,13 @@
         <v>74595</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,13 +1246,13 @@
         <v>535911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1414</v>
@@ -1267,13 +1261,13 @@
         <v>828554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2098</v>
@@ -1282,18 +1276,18 @@
         <v>1364464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1305,13 +1299,13 @@
         <v>1159243</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>1185</v>
@@ -1320,13 +1314,13 @@
         <v>1090502</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2111</v>
@@ -1335,13 +1329,13 @@
         <v>2249746</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1350,13 @@
         <v>723700</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1223</v>
@@ -1371,13 +1365,13 @@
         <v>845221</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
@@ -1386,19 +1380,19 @@
         <v>1568921</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>267</v>
@@ -1407,13 +1401,13 @@
         <v>232960</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
@@ -1422,13 +1416,13 @@
         <v>285868</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
@@ -1437,19 +1431,19 @@
         <v>518828</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -1458,13 +1452,13 @@
         <v>39610</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1473,13 +1467,13 @@
         <v>24608</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -1488,13 +1482,13 @@
         <v>64219</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1503,13 @@
         <v>2155513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2916</v>
@@ -1524,13 +1518,13 @@
         <v>2246200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4902</v>
@@ -1539,18 +1533,18 @@
         <v>4401713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1556,13 @@
         <v>340304</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>441</v>
@@ -1577,13 +1571,13 @@
         <v>338265</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -1592,13 +1586,13 @@
         <v>678570</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1607,13 @@
         <v>263338</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>437</v>
@@ -1628,13 +1622,13 @@
         <v>290616</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>727</v>
@@ -1643,19 +1637,19 @@
         <v>553955</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>64</v>
@@ -1664,13 +1658,13 @@
         <v>58251</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -1679,13 +1673,13 @@
         <v>69271</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -1694,19 +1688,19 @@
         <v>127522</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -1715,13 +1709,13 @@
         <v>8557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -1730,13 +1724,13 @@
         <v>15575</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1745,13 +1739,13 @@
         <v>24131</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1760,13 @@
         <v>670450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1003</v>
@@ -1781,13 +1775,13 @@
         <v>713727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1682</v>
@@ -1796,13 +1790,13 @@
         <v>1384178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1813,13 @@
         <v>1687339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>2002</v>
@@ -1834,13 +1828,13 @@
         <v>1660589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>3469</v>
@@ -1849,13 +1843,13 @@
         <v>3347928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>1187928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>2213</v>
@@ -1885,13 +1879,13 @@
         <v>1453192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>3516</v>
@@ -1900,19 +1894,19 @@
         <v>2641120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>491</v>
@@ -1921,13 +1915,13 @@
         <v>408151</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>978</v>
@@ -1936,13 +1930,13 @@
         <v>590211</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1469</v>
@@ -1951,19 +1945,19 @@
         <v>998362</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>88</v>
@@ -1972,13 +1966,13 @@
         <v>78456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>140</v>
@@ -1987,13 +1981,13 @@
         <v>84489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>228</v>
@@ -2002,13 +1996,13 @@
         <v>162945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2017,13 @@
         <v>3361874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5333</v>
@@ -2038,13 +2032,13 @@
         <v>3788481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8682</v>
@@ -2053,18 +2047,18 @@
         <v>7150355</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081B15BE-0A49-4B5E-8202-4E11398E548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70D736B-BC7A-4269-8002-148A759373CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77BE3155-E216-4C4B-80F7-E68046FC8625}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE27DF81-3A71-407A-B80D-0F57F68A1ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,118 +71,121 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,319 +194,316 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>10,79%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167C835-2312-4EE8-8675-A2424A3B56CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31792D25-21C2-4B03-8CA6-58484D801A26}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,7 +1039,7 @@
         <v>223</v>
       </c>
       <c r="D4" s="7">
-        <v>187792</v>
+        <v>178481</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>376</v>
       </c>
       <c r="I4" s="7">
-        <v>231821</v>
+        <v>210075</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1069,7 +1069,7 @@
         <v>599</v>
       </c>
       <c r="N4" s="7">
-        <v>419613</v>
+        <v>388556</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1090,7 +1090,7 @@
         <v>259</v>
       </c>
       <c r="D5" s="7">
-        <v>200890</v>
+        <v>193078</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1105,7 +1105,7 @@
         <v>553</v>
       </c>
       <c r="I5" s="7">
-        <v>317354</v>
+        <v>289138</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1120,118 +1120,118 @@
         <v>812</v>
       </c>
       <c r="N5" s="7">
-        <v>518244</v>
+        <v>482216</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>160</v>
       </c>
       <c r="D6" s="7">
-        <v>116940</v>
+        <v>109683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>405</v>
       </c>
       <c r="I6" s="7">
-        <v>235072</v>
+        <v>209794</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>565</v>
       </c>
       <c r="N6" s="7">
-        <v>352012</v>
+        <v>319477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>30289</v>
+        <v>28448</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>44306</v>
+        <v>39861</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>74595</v>
+        <v>68310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,51 +1243,51 @@
         <v>684</v>
       </c>
       <c r="D8" s="7">
-        <v>535911</v>
+        <v>509690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1414</v>
       </c>
       <c r="I8" s="7">
-        <v>828554</v>
+        <v>748869</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2098</v>
       </c>
       <c r="N8" s="7">
-        <v>1364464</v>
+        <v>1258559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1296,46 +1296,46 @@
         <v>926</v>
       </c>
       <c r="D9" s="7">
-        <v>1159243</v>
+        <v>1320957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>1185</v>
       </c>
       <c r="I9" s="7">
-        <v>1090502</v>
+        <v>1090624</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2111</v>
       </c>
       <c r="N9" s="7">
-        <v>2249746</v>
+        <v>2411581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,148 +1347,148 @@
         <v>754</v>
       </c>
       <c r="D10" s="7">
-        <v>723700</v>
+        <v>707954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1223</v>
       </c>
       <c r="I10" s="7">
-        <v>845221</v>
+        <v>863186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1977</v>
       </c>
       <c r="N10" s="7">
-        <v>1568921</v>
+        <v>1571140</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>267</v>
       </c>
       <c r="D11" s="7">
-        <v>232960</v>
+        <v>218505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
       </c>
       <c r="I11" s="7">
-        <v>285868</v>
+        <v>258533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
       </c>
       <c r="N11" s="7">
-        <v>518828</v>
+        <v>477038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>39610</v>
+        <v>36837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>24608</v>
+        <v>22442</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
       </c>
       <c r="N12" s="7">
-        <v>64219</v>
+        <v>59278</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,51 +1500,51 @@
         <v>1986</v>
       </c>
       <c r="D13" s="7">
-        <v>2155513</v>
+        <v>2284252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2916</v>
       </c>
       <c r="I13" s="7">
-        <v>2246200</v>
+        <v>2234785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4902</v>
       </c>
       <c r="N13" s="7">
-        <v>4401713</v>
+        <v>4519037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1553,46 +1553,46 @@
         <v>318</v>
       </c>
       <c r="D14" s="7">
-        <v>340304</v>
+        <v>326270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>441</v>
       </c>
       <c r="I14" s="7">
-        <v>338265</v>
+        <v>308491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
       </c>
       <c r="N14" s="7">
-        <v>678570</v>
+        <v>634761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,112 +1604,112 @@
         <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>263338</v>
+        <v>254248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>437</v>
       </c>
       <c r="I15" s="7">
-        <v>290616</v>
+        <v>274461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>553955</v>
+        <v>528709</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>58251</v>
+        <v>55293</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
       </c>
       <c r="I16" s="7">
-        <v>69271</v>
+        <v>63184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>127522</v>
+        <v>118477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>8557</v>
+        <v>8424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>115</v>
@@ -1721,31 +1721,31 @@
         <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>15575</v>
+        <v>14167</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>24131</v>
+        <v>22591</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,46 +1757,46 @@
         <v>679</v>
       </c>
       <c r="D18" s="7">
-        <v>670450</v>
+        <v>644235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>713727</v>
+        <v>660302</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1682</v>
       </c>
       <c r="N18" s="7">
-        <v>1384178</v>
+        <v>1304537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="7">
-        <v>1687339</v>
+        <v>1825708</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -1825,7 +1825,7 @@
         <v>2002</v>
       </c>
       <c r="I19" s="7">
-        <v>1660589</v>
+        <v>1609190</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>125</v>
@@ -1840,7 +1840,7 @@
         <v>3469</v>
       </c>
       <c r="N19" s="7">
-        <v>3347928</v>
+        <v>3434897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>128</v>
@@ -1861,7 +1861,7 @@
         <v>1303</v>
       </c>
       <c r="D20" s="7">
-        <v>1187928</v>
+        <v>1155280</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>131</v>
@@ -1876,7 +1876,7 @@
         <v>2213</v>
       </c>
       <c r="I20" s="7">
-        <v>1453192</v>
+        <v>1426784</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>134</v>
@@ -1891,7 +1891,7 @@
         <v>3516</v>
       </c>
       <c r="N20" s="7">
-        <v>2641120</v>
+        <v>2582065</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -1906,70 +1906,70 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>491</v>
       </c>
       <c r="D21" s="7">
-        <v>408151</v>
+        <v>383480</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>978</v>
       </c>
       <c r="I21" s="7">
-        <v>590211</v>
+        <v>531511</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>1469</v>
       </c>
       <c r="N21" s="7">
-        <v>998362</v>
+        <v>914991</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>78456</v>
+        <v>73709</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>150</v>
@@ -1978,7 +1978,7 @@
         <v>140</v>
       </c>
       <c r="I22" s="7">
-        <v>84489</v>
+        <v>76470</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>151</v>
@@ -1993,7 +1993,7 @@
         <v>228</v>
       </c>
       <c r="N22" s="7">
-        <v>162945</v>
+        <v>150178</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>154</v>
@@ -2014,46 +2014,46 @@
         <v>3349</v>
       </c>
       <c r="D23" s="7">
-        <v>3361874</v>
+        <v>3438177</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5333</v>
       </c>
       <c r="I23" s="7">
-        <v>3788481</v>
+        <v>3643955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8682</v>
       </c>
       <c r="N23" s="7">
-        <v>7150355</v>
+        <v>7082132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
